--- a/monitor_xlsx/20260128.xlsx
+++ b/monitor_xlsx/20260128.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="總覽" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="詳細數據" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="個股籌碼" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="7">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -37,8 +38,18 @@
       <b val="1"/>
       <sz val="14"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
+    <font>
+      <color rgb="00008000"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -49,6 +60,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00CCCCCC"/>
         <bgColor rgb="00CCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -64,7 +81,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -74,6 +91,11 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -545,12 +567,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5526.6$</t>
+          <t>5301.6$</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>+8.79%</t>
+          <t>+4.36%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -717,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>191.87%</t>
+          <t>128.92%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>191.87%</t>
+          <t>128.92%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1002,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>191.87%</t>
+          <t>128.92%</t>
         </is>
       </c>
     </row>
@@ -1021,4 +1043,1364 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:V19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="10" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="10" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="12" max="12"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="12" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="12" customWidth="1" min="19" max="19"/>
+    <col width="10" customWidth="1" min="20" max="20"/>
+    <col width="12" customWidth="1" min="21" max="21"/>
+    <col width="10" customWidth="1" min="22" max="22"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>個股籌碼監控報告 - 20260128</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>股票代號</t>
+        </is>
+      </c>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>股票名稱</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="inlineStr">
+        <is>
+          <t>收盤價</t>
+        </is>
+      </c>
+      <c r="D3" s="5" t="inlineStr">
+        <is>
+          <t>漲跌幅(%)</t>
+        </is>
+      </c>
+      <c r="E3" s="5" t="inlineStr">
+        <is>
+          <t>成交量(張)</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>外資當日(張)</t>
+        </is>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
+        <is>
+          <t>外資5日累計</t>
+        </is>
+      </c>
+      <c r="H3" s="5" t="inlineStr">
+        <is>
+          <t>投信當日(張)</t>
+        </is>
+      </c>
+      <c r="I3" s="5" t="inlineStr">
+        <is>
+          <t>投信5日累計</t>
+        </is>
+      </c>
+      <c r="J3" s="5" t="inlineStr">
+        <is>
+          <t>自營商當日(張)</t>
+        </is>
+      </c>
+      <c r="K3" s="5" t="inlineStr">
+        <is>
+          <t>融資增減(張)</t>
+        </is>
+      </c>
+      <c r="L3" s="5" t="inlineStr">
+        <is>
+          <t>融資5日累計</t>
+        </is>
+      </c>
+      <c r="M3" s="5" t="inlineStr">
+        <is>
+          <t>借券增減(張)</t>
+        </is>
+      </c>
+      <c r="N3" s="5" t="inlineStr">
+        <is>
+          <t>MA20乖離(%)</t>
+        </is>
+      </c>
+      <c r="O3" s="5" t="inlineStr">
+        <is>
+          <t>籌碼評價</t>
+        </is>
+      </c>
+      <c r="P3" s="5" t="inlineStr">
+        <is>
+          <t>買賣券商差</t>
+        </is>
+      </c>
+      <c r="Q3" s="5" t="inlineStr">
+        <is>
+          <t>籌碼集中度5D(%)</t>
+        </is>
+      </c>
+      <c r="R3" s="5" t="inlineStr">
+        <is>
+          <t>借券賣出餘額</t>
+        </is>
+      </c>
+      <c r="S3" s="5" t="inlineStr">
+        <is>
+          <t>短回補天數</t>
+        </is>
+      </c>
+      <c r="T3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP20D</t>
+        </is>
+      </c>
+      <c r="U3" s="5" t="inlineStr">
+        <is>
+          <t>VWAP乖離(%)</t>
+        </is>
+      </c>
+      <c r="V3" s="5" t="inlineStr">
+        <is>
+          <t>資料來源</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0050</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74.2</v>
+      </c>
+      <c r="D4" s="6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="E4" t="n">
+        <v>90901</v>
+      </c>
+      <c r="F4" s="7" t="n">
+        <v>2680</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-56007</v>
+      </c>
+      <c r="H4" t="n">
+        <v>284</v>
+      </c>
+      <c r="I4" t="n">
+        <v>5582</v>
+      </c>
+      <c r="J4" t="n">
+        <v>31613</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6990</v>
+      </c>
+      <c r="L4" t="n">
+        <v>37084</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-3965508</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="7" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="R4" t="n">
+        <v>116363000</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="T4" t="n">
+        <v>70.73</v>
+      </c>
+      <c r="U4" t="n">
+        <v>4.91</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>00708L</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>S&amp;P黃金正2</t>
+        </is>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-517</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-70</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3633</v>
+      </c>
+      <c r="K5" t="n">
+        <v>8297</v>
+      </c>
+      <c r="L5" t="n">
+        <v>37694</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-21535</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="6" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="R5" t="n">
+        <v>947000</v>
+      </c>
+      <c r="S5" t="n">
+        <v>26.36</v>
+      </c>
+      <c r="T5" t="n">
+        <v>107.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1519</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>華城</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1040</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3300</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>-35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1182</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-484</v>
+      </c>
+      <c r="J6" t="n">
+        <v>50</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2886</v>
+      </c>
+      <c r="L6" t="n">
+        <v>14352</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-78623</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>-28</v>
+      </c>
+      <c r="Q6" s="6" t="n">
+        <v>-3.21</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3924000</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="T6" t="n">
+        <v>911.52</v>
+      </c>
+      <c r="U6" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1605</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>華新</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="E7" t="n">
+        <v>260944</v>
+      </c>
+      <c r="F7" s="7" t="n">
+        <v>41499</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-27877</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9310</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-12963</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2415</v>
+      </c>
+      <c r="K7" t="n">
+        <v>78471</v>
+      </c>
+      <c r="L7" t="n">
+        <v>382273</v>
+      </c>
+      <c r="M7" t="n">
+        <v>-1104664</v>
+      </c>
+      <c r="N7" t="n">
+        <v>8.390000000000001</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>主力積極賣出</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>-19</v>
+      </c>
+      <c r="Q7" s="7" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="R7" t="n">
+        <v>172666918</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="T7" t="n">
+        <v>39.99</v>
+      </c>
+      <c r="U7" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2308</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>台達電</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>1280</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11623</v>
+      </c>
+      <c r="F8" s="7" t="n">
+        <v>1175</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1590</v>
+      </c>
+      <c r="H8" t="n">
+        <v>245</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1257</v>
+      </c>
+      <c r="J8" t="n">
+        <v>185</v>
+      </c>
+      <c r="K8" t="n">
+        <v>7278</v>
+      </c>
+      <c r="L8" t="n">
+        <v>42571</v>
+      </c>
+      <c r="M8" t="n">
+        <v>-648554</v>
+      </c>
+      <c r="N8" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="7" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="R8" t="n">
+        <v>2061680</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1106.43</v>
+      </c>
+      <c r="U8" t="n">
+        <v>15.69</v>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2330</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>台積電</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1820</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>31327</v>
+      </c>
+      <c r="F9" s="7" t="n">
+        <v>7714</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-25600</v>
+      </c>
+      <c r="H9" t="n">
+        <v>664</v>
+      </c>
+      <c r="I9" t="n">
+        <v>-532</v>
+      </c>
+      <c r="J9" t="n">
+        <v>402</v>
+      </c>
+      <c r="K9" t="n">
+        <v>19657</v>
+      </c>
+      <c r="L9" t="n">
+        <v>103814</v>
+      </c>
+      <c r="M9" t="n">
+        <v>-6482784</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>主力積極賣出</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q9" s="7" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1577680</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1703.8</v>
+      </c>
+      <c r="U9" t="n">
+        <v>6.82</v>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2344</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>華邦電</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>127</v>
+      </c>
+      <c r="D10" s="6" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>183205</v>
+      </c>
+      <c r="F10" s="7" t="n">
+        <v>3516</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-37736</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6551</v>
+      </c>
+      <c r="I10" t="n">
+        <v>11305</v>
+      </c>
+      <c r="J10" t="n">
+        <v>548</v>
+      </c>
+      <c r="K10" t="n">
+        <v>156299</v>
+      </c>
+      <c r="L10" t="n">
+        <v>688130</v>
+      </c>
+      <c r="M10" t="n">
+        <v>-1104086</v>
+      </c>
+      <c r="N10" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>-47</v>
+      </c>
+      <c r="Q10" s="6" t="n">
+        <v>-8.029999999999999</v>
+      </c>
+      <c r="R10" t="n">
+        <v>28263000</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="T10" t="n">
+        <v>101.18</v>
+      </c>
+      <c r="U10" t="n">
+        <v>25.52</v>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2383</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>台光電</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1900</v>
+      </c>
+      <c r="D11" s="6" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="E11" t="n">
+        <v>4507</v>
+      </c>
+      <c r="F11" s="7" t="n">
+        <v>432</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4711</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-26</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-798</v>
+      </c>
+      <c r="J11" t="n">
+        <v>242</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1927</v>
+      </c>
+      <c r="L11" t="n">
+        <v>10858</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-89472</v>
+      </c>
+      <c r="N11" t="n">
+        <v>10.72</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>-2</v>
+      </c>
+      <c r="Q11" s="6" t="n">
+        <v>-9.93</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2154528</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="T11" t="n">
+        <v>1651.37</v>
+      </c>
+      <c r="U11" t="n">
+        <v>15.06</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3661</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>世芯-KY</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3370</v>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>-1.75</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2039</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>-270</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-186</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-117</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-89</v>
+      </c>
+      <c r="J12" t="n">
+        <v>160</v>
+      </c>
+      <c r="K12" t="n">
+        <v>5790</v>
+      </c>
+      <c r="L12" t="n">
+        <v>28775</v>
+      </c>
+      <c r="M12" t="n">
+        <v>-19719</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>主力積極賣出</t>
+        </is>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6" t="n">
+        <v>-5.29</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4823503</v>
+      </c>
+      <c r="S12" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3514.87</v>
+      </c>
+      <c r="U12" t="n">
+        <v>-4.12</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4958</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>臻鼎-KY</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>176.5</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="E13" t="n">
+        <v>32429</v>
+      </c>
+      <c r="F13" s="7" t="n">
+        <v>2834</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2877</v>
+      </c>
+      <c r="H13" t="n">
+        <v>-230</v>
+      </c>
+      <c r="I13" t="n">
+        <v>-955</v>
+      </c>
+      <c r="J13" t="n">
+        <v>400</v>
+      </c>
+      <c r="K13" t="n">
+        <v>26254</v>
+      </c>
+      <c r="L13" t="n">
+        <v>102082</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-267463</v>
+      </c>
+      <c r="N13" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P13" t="n">
+        <v>-5</v>
+      </c>
+      <c r="Q13" s="7" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="R13" t="n">
+        <v>17386945</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="T13" t="n">
+        <v>165.15</v>
+      </c>
+      <c r="U13" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6442</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>光聖</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1570</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>9.789999999999999</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1578</v>
+      </c>
+      <c r="F14" s="7" t="n">
+        <v>217</v>
+      </c>
+      <c r="G14" t="n">
+        <v>365</v>
+      </c>
+      <c r="I14" t="n">
+        <v>378</v>
+      </c>
+      <c r="J14" t="n">
+        <v>83</v>
+      </c>
+      <c r="K14" t="n">
+        <v>5412</v>
+      </c>
+      <c r="L14" t="n">
+        <v>25474</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-19129</v>
+      </c>
+      <c r="N14" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>偏多</t>
+        </is>
+      </c>
+      <c r="P14" t="n">
+        <v>-19</v>
+      </c>
+      <c r="Q14" s="7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="R14" t="n">
+        <v>2215000</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T14" t="n">
+        <v>1343.95</v>
+      </c>
+      <c r="U14" t="n">
+        <v>16.82</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3081</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>聯亞</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1025</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>-9.69</v>
+      </c>
+      <c r="E15" t="n">
+        <v>744</v>
+      </c>
+      <c r="F15" s="7" t="n">
+        <v>161</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-370</v>
+      </c>
+      <c r="H15" t="n">
+        <v>755</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1120</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-67</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-153</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-208</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P15" t="n">
+        <v>-17</v>
+      </c>
+      <c r="Q15" s="6" t="n">
+        <v>-9.359999999999999</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2770400</v>
+      </c>
+      <c r="S15" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="T15" t="n">
+        <v>739.72</v>
+      </c>
+      <c r="U15" t="n">
+        <v>38.57</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3260</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>威剛</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>333.5</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="E16" t="n">
+        <v>26864</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>-3596</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-4235</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1084</v>
+      </c>
+      <c r="I16" t="n">
+        <v>-137</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-70</v>
+      </c>
+      <c r="K16" t="n">
+        <v>-724</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4994</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>主力積極賣出</t>
+        </is>
+      </c>
+      <c r="P16" t="n">
+        <v>-42</v>
+      </c>
+      <c r="Q16" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7237640</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="T16" t="n">
+        <v>310.9</v>
+      </c>
+      <c r="U16" t="n">
+        <v>7.27</v>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3265</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>台新科</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>136</v>
+      </c>
+      <c r="D17" s="7" t="n">
+        <v>-2.51</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2294</v>
+      </c>
+      <c r="F17" s="7" t="n">
+        <v>111</v>
+      </c>
+      <c r="G17" t="n">
+        <v>312</v>
+      </c>
+      <c r="I17" t="n">
+        <v>736</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23</v>
+      </c>
+      <c r="K17" t="n">
+        <v>26</v>
+      </c>
+      <c r="L17" t="n">
+        <v>-762</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>主力積極買進</t>
+        </is>
+      </c>
+      <c r="P17" t="n">
+        <v>-43</v>
+      </c>
+      <c r="Q17" s="7" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2386000</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="T17" t="n">
+        <v>137</v>
+      </c>
+      <c r="U17" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>華星光</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>319</v>
+      </c>
+      <c r="D18" s="7" t="n">
+        <v>-2.74</v>
+      </c>
+      <c r="E18" t="n">
+        <v>23662</v>
+      </c>
+      <c r="F18" s="7" t="n">
+        <v>983</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-8724</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2668</v>
+      </c>
+      <c r="I18" t="n">
+        <v>4350</v>
+      </c>
+      <c r="J18" t="n">
+        <v>544</v>
+      </c>
+      <c r="K18" t="n">
+        <v>-2108</v>
+      </c>
+      <c r="L18" t="n">
+        <v>-1625</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>中性</t>
+        </is>
+      </c>
+      <c r="P18" t="n">
+        <v>44</v>
+      </c>
+      <c r="Q18" s="6" t="n">
+        <v>-4.76</v>
+      </c>
+      <c r="R18" t="n">
+        <v>11883993</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T18" t="n">
+        <v>299.79</v>
+      </c>
+      <c r="U18" t="n">
+        <v>6.41</v>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3189</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>景碩</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>243.5</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="E19" t="n">
+        <v>66707</v>
+      </c>
+      <c r="F19" s="7" t="n">
+        <v>3088</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-4144</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1172</v>
+      </c>
+      <c r="I19" t="n">
+        <v>6460</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1608</v>
+      </c>
+      <c r="K19" t="n">
+        <v>30297</v>
+      </c>
+      <c r="L19" t="n">
+        <v>155567</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-113920</v>
+      </c>
+      <c r="N19" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>偏空</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>-19</v>
+      </c>
+      <c r="Q19" s="7" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6556826</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="T19" t="n">
+        <v>193.03</v>
+      </c>
+      <c r="U19" t="n">
+        <v>26.15</v>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>partial</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/monitor_xlsx/20260128.xlsx
+++ b/monitor_xlsx/20260128.xlsx
@@ -739,13 +739,13 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>158.39%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>171.77%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -829,12 +829,12 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>-25.93億</t>
+          <t>-26.2億</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>-518.68億</t>
+          <t>-523.98億</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-25.93億</t>
+          <t>-26.2億</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-518.68億</t>
+          <t>-523.98億</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>128.92%</t>
+          <t>171.77%</t>
         </is>
       </c>
     </row>
@@ -1254,27 +1254,9 @@
           <t>偏空</t>
         </is>
       </c>
-      <c r="P4" t="n">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="7" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="R4" t="n">
-        <v>116363000</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="T4" t="n">
-        <v>70.73</v>
-      </c>
-      <c r="U4" t="n">
-        <v>4.91</v>
-      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1315,27 +1297,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P5" t="n">
-        <v>29</v>
-      </c>
-      <c r="Q5" s="6" t="n">
-        <v>-0.92</v>
-      </c>
-      <c r="R5" t="n">
-        <v>947000</v>
-      </c>
-      <c r="S5" t="n">
-        <v>26.36</v>
-      </c>
-      <c r="T5" t="n">
-        <v>107.05</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1391,27 +1355,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P6" t="n">
-        <v>-28</v>
-      </c>
-      <c r="Q6" s="6" t="n">
-        <v>-3.21</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3924000</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="T6" t="n">
-        <v>911.52</v>
-      </c>
-      <c r="U6" t="n">
-        <v>14.1</v>
-      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1467,27 +1413,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P7" t="n">
-        <v>-19</v>
-      </c>
-      <c r="Q7" s="7" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="R7" t="n">
-        <v>172666918</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="T7" t="n">
-        <v>39.99</v>
-      </c>
-      <c r="U7" t="n">
-        <v>7.53</v>
-      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1543,27 +1471,9 @@
           <t>偏多</t>
         </is>
       </c>
-      <c r="P8" t="n">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2061680</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1106.43</v>
-      </c>
-      <c r="U8" t="n">
-        <v>15.69</v>
-      </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1619,27 +1529,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P9" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q9" s="7" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1577680</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1703.8</v>
-      </c>
-      <c r="U9" t="n">
-        <v>6.82</v>
-      </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1695,27 +1587,9 @@
           <t>偏空</t>
         </is>
       </c>
-      <c r="P10" t="n">
-        <v>-47</v>
-      </c>
-      <c r="Q10" s="6" t="n">
-        <v>-8.029999999999999</v>
-      </c>
-      <c r="R10" t="n">
-        <v>28263000</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T10" t="n">
-        <v>101.18</v>
-      </c>
-      <c r="U10" t="n">
-        <v>25.52</v>
-      </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1771,27 +1645,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P11" t="n">
-        <v>-2</v>
-      </c>
-      <c r="Q11" s="6" t="n">
-        <v>-9.93</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2154528</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1651.37</v>
-      </c>
-      <c r="U11" t="n">
-        <v>15.06</v>
-      </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1847,27 +1703,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6" t="n">
-        <v>-5.29</v>
-      </c>
-      <c r="R12" t="n">
-        <v>4823503</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3514.87</v>
-      </c>
-      <c r="U12" t="n">
-        <v>-4.12</v>
-      </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1923,27 +1761,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P13" t="n">
-        <v>-5</v>
-      </c>
-      <c r="Q13" s="7" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="R13" t="n">
-        <v>17386945</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="T13" t="n">
-        <v>165.15</v>
-      </c>
-      <c r="U13" t="n">
-        <v>6.87</v>
-      </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -1996,27 +1816,9 @@
           <t>偏多</t>
         </is>
       </c>
-      <c r="P14" t="n">
-        <v>-19</v>
-      </c>
-      <c r="Q14" s="7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2215000</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1343.95</v>
-      </c>
-      <c r="U14" t="n">
-        <v>16.82</v>
-      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2032,13 +1834,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1025</v>
+        <v>1000</v>
       </c>
       <c r="D15" s="7" t="n">
-        <v>-9.69</v>
+        <v>-2.44</v>
       </c>
       <c r="E15" t="n">
-        <v>744</v>
+        <v>905</v>
       </c>
       <c r="F15" s="7" t="n">
         <v>161</v>
@@ -2072,27 +1874,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P15" t="n">
-        <v>-17</v>
-      </c>
-      <c r="Q15" s="6" t="n">
-        <v>-9.359999999999999</v>
-      </c>
-      <c r="R15" t="n">
-        <v>2770400</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.72</v>
-      </c>
-      <c r="T15" t="n">
-        <v>739.72</v>
-      </c>
-      <c r="U15" t="n">
-        <v>38.57</v>
-      </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2108,13 +1892,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>333.5</v>
-      </c>
-      <c r="D16" s="6" t="n">
-        <v>0.15</v>
+        <v>306.5</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>-8.1</v>
       </c>
       <c r="E16" t="n">
-        <v>26864</v>
+        <v>26486</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>-3596</v>
@@ -2148,27 +1932,9 @@
           <t>主力積極賣出</t>
         </is>
       </c>
-      <c r="P16" t="n">
-        <v>-42</v>
-      </c>
-      <c r="Q16" s="7" t="n">
-        <v>9</v>
-      </c>
-      <c r="R16" t="n">
-        <v>7237640</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="T16" t="n">
-        <v>310.9</v>
-      </c>
-      <c r="U16" t="n">
-        <v>7.27</v>
-      </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2184,13 +1950,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>136</v>
+        <v>132.5</v>
       </c>
       <c r="D17" s="7" t="n">
-        <v>-2.51</v>
+        <v>-2.57</v>
       </c>
       <c r="E17" t="n">
-        <v>2294</v>
+        <v>1591</v>
       </c>
       <c r="F17" s="7" t="n">
         <v>111</v>
@@ -2221,27 +1987,9 @@
           <t>主力積極買進</t>
         </is>
       </c>
-      <c r="P17" t="n">
-        <v>-43</v>
-      </c>
-      <c r="Q17" s="7" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2386000</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="T17" t="n">
-        <v>137</v>
-      </c>
-      <c r="U17" t="n">
-        <v>-0.73</v>
-      </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2257,13 +2005,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>319</v>
+        <v>318.5</v>
       </c>
       <c r="D18" s="7" t="n">
-        <v>-2.74</v>
+        <v>-0.16</v>
       </c>
       <c r="E18" t="n">
-        <v>23662</v>
+        <v>20497</v>
       </c>
       <c r="F18" s="7" t="n">
         <v>983</v>
@@ -2297,27 +2045,9 @@
           <t>中性</t>
         </is>
       </c>
-      <c r="P18" t="n">
-        <v>44</v>
-      </c>
-      <c r="Q18" s="6" t="n">
-        <v>-4.76</v>
-      </c>
-      <c r="R18" t="n">
-        <v>11883993</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T18" t="n">
-        <v>299.79</v>
-      </c>
-      <c r="U18" t="n">
-        <v>6.41</v>
-      </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
@@ -2373,27 +2103,9 @@
           <t>偏空</t>
         </is>
       </c>
-      <c r="P19" t="n">
-        <v>-19</v>
-      </c>
-      <c r="Q19" s="7" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="R19" t="n">
-        <v>6556826</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="T19" t="n">
-        <v>193.03</v>
-      </c>
-      <c r="U19" t="n">
-        <v>26.15</v>
-      </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>partial</t>
+          <t>N/A</t>
         </is>
       </c>
     </row>
